--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1311"/>
+  <dimension ref="A1:R1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73045,7 +73045,9 @@
       <c r="Q1296" t="n">
         <v>1</v>
       </c>
-      <c r="R1296" t="inlineStr"/>
+      <c r="R1296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1297">
       <c r="A1297" s="2" t="n">
@@ -73099,7 +73101,9 @@
       <c r="Q1297" t="n">
         <v>0</v>
       </c>
-      <c r="R1297" t="inlineStr"/>
+      <c r="R1297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1298">
       <c r="A1298" s="2" t="n">
@@ -73153,7 +73157,9 @@
       <c r="Q1298" t="n">
         <v>0</v>
       </c>
-      <c r="R1298" t="inlineStr"/>
+      <c r="R1298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1299">
       <c r="A1299" s="2" t="n">
@@ -73207,7 +73213,9 @@
       <c r="Q1299" t="n">
         <v>0</v>
       </c>
-      <c r="R1299" t="inlineStr"/>
+      <c r="R1299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1300">
       <c r="A1300" s="2" t="n">
@@ -73261,7 +73269,9 @@
       <c r="Q1300" t="n">
         <v>0</v>
       </c>
-      <c r="R1300" t="inlineStr"/>
+      <c r="R1300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1301">
       <c r="A1301" s="2" t="n">
@@ -73315,7 +73325,9 @@
       <c r="Q1301" t="n">
         <v>0</v>
       </c>
-      <c r="R1301" t="inlineStr"/>
+      <c r="R1301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1302">
       <c r="A1302" s="2" t="n">
@@ -73369,7 +73381,9 @@
       <c r="Q1302" t="n">
         <v>0</v>
       </c>
-      <c r="R1302" t="inlineStr"/>
+      <c r="R1302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1303">
       <c r="A1303" s="2" t="n">
@@ -73423,7 +73437,9 @@
       <c r="Q1303" t="n">
         <v>0</v>
       </c>
-      <c r="R1303" t="inlineStr"/>
+      <c r="R1303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1304">
       <c r="A1304" s="2" t="n">
@@ -73477,7 +73493,9 @@
       <c r="Q1304" t="n">
         <v>0</v>
       </c>
-      <c r="R1304" t="inlineStr"/>
+      <c r="R1304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1305">
       <c r="A1305" s="2" t="n">
@@ -73531,7 +73549,9 @@
       <c r="Q1305" t="n">
         <v>0</v>
       </c>
-      <c r="R1305" t="inlineStr"/>
+      <c r="R1305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1306">
       <c r="A1306" s="2" t="n">
@@ -73577,7 +73597,7 @@
         <v>31</v>
       </c>
       <c r="O1306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1306" t="n">
         <v>0</v>
@@ -73585,7 +73605,9 @@
       <c r="Q1306" t="n">
         <v>0</v>
       </c>
-      <c r="R1306" t="inlineStr"/>
+      <c r="R1306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1307">
       <c r="A1307" s="2" t="n">
@@ -73639,7 +73661,9 @@
       <c r="Q1307" t="n">
         <v>0</v>
       </c>
-      <c r="R1307" t="inlineStr"/>
+      <c r="R1307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1308">
       <c r="A1308" s="2" t="n">
@@ -73693,7 +73717,9 @@
       <c r="Q1308" t="n">
         <v>0</v>
       </c>
-      <c r="R1308" t="inlineStr"/>
+      <c r="R1308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1309">
       <c r="A1309" s="2" t="n">
@@ -73747,7 +73773,9 @@
       <c r="Q1309" t="n">
         <v>0</v>
       </c>
-      <c r="R1309" t="inlineStr"/>
+      <c r="R1309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1310">
       <c r="A1310" s="2" t="n">
@@ -73801,7 +73829,9 @@
       <c r="Q1310" t="n">
         <v>0</v>
       </c>
-      <c r="R1310" t="inlineStr"/>
+      <c r="R1310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1311">
       <c r="A1311" s="2" t="n">
@@ -73855,7 +73885,279 @@
       <c r="Q1311" t="n">
         <v>0</v>
       </c>
-      <c r="R1311" t="inlineStr"/>
+      <c r="R1311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1312" t="n">
+        <v>2057.300048828125</v>
+      </c>
+      <c r="C1312" t="n">
+        <v>2106</v>
+      </c>
+      <c r="D1312" t="n">
+        <v>2033.650024414062</v>
+      </c>
+      <c r="E1312" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F1312" t="n">
+        <v>2040</v>
+      </c>
+      <c r="G1312" t="n">
+        <v>61157</v>
+      </c>
+      <c r="H1312" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1312" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1312" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1312" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1312" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1312" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1312" t="inlineStr"/>
+    </row>
+    <row r="1313">
+      <c r="A1313" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1313" t="n">
+        <v>2050.10009765625</v>
+      </c>
+      <c r="C1313" t="n">
+        <v>2121.25</v>
+      </c>
+      <c r="D1313" t="n">
+        <v>2050.10009765625</v>
+      </c>
+      <c r="E1313" t="n">
+        <v>2104.300048828125</v>
+      </c>
+      <c r="F1313" t="n">
+        <v>2104.300048828125</v>
+      </c>
+      <c r="G1313" t="n">
+        <v>230158</v>
+      </c>
+      <c r="H1313" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1313" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1313" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1313" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1313" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1313" t="inlineStr"/>
+    </row>
+    <row r="1314">
+      <c r="A1314" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1314" t="n">
+        <v>2104.35009765625</v>
+      </c>
+      <c r="C1314" t="n">
+        <v>2126.949951171875</v>
+      </c>
+      <c r="D1314" t="n">
+        <v>2053.35009765625</v>
+      </c>
+      <c r="E1314" t="n">
+        <v>2065.699951171875</v>
+      </c>
+      <c r="F1314" t="n">
+        <v>2065.699951171875</v>
+      </c>
+      <c r="G1314" t="n">
+        <v>158730</v>
+      </c>
+      <c r="H1314" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1314" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1314" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1314" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1314" t="inlineStr"/>
+    </row>
+    <row r="1315">
+      <c r="A1315" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1315" t="n">
+        <v>2075</v>
+      </c>
+      <c r="C1315" t="n">
+        <v>2098</v>
+      </c>
+      <c r="D1315" t="n">
+        <v>2050.050048828125</v>
+      </c>
+      <c r="E1315" t="n">
+        <v>2058</v>
+      </c>
+      <c r="F1315" t="n">
+        <v>2058</v>
+      </c>
+      <c r="G1315" t="n">
+        <v>75562</v>
+      </c>
+      <c r="H1315" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1315" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1315" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1315" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1315" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1315" t="inlineStr"/>
+    </row>
+    <row r="1316">
+      <c r="A1316" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1316" t="n">
+        <v>2069.050048828125</v>
+      </c>
+      <c r="C1316" t="n">
+        <v>2137.800048828125</v>
+      </c>
+      <c r="D1316" t="n">
+        <v>2004.650024414062</v>
+      </c>
+      <c r="E1316" t="n">
+        <v>2038.650024414062</v>
+      </c>
+      <c r="F1316" t="n">
+        <v>2038.650024414062</v>
+      </c>
+      <c r="G1316" t="n">
+        <v>236756</v>
+      </c>
+      <c r="H1316" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1316" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1316" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1316" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1316" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1316" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1316"/>
+  <dimension ref="A1:R1354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73941,7 +73941,9 @@
       <c r="Q1312" t="n">
         <v>1</v>
       </c>
-      <c r="R1312" t="inlineStr"/>
+      <c r="R1312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1313">
       <c r="A1313" s="2" t="n">
@@ -73995,7 +73997,9 @@
       <c r="Q1313" t="n">
         <v>0</v>
       </c>
-      <c r="R1313" t="inlineStr"/>
+      <c r="R1313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1314">
       <c r="A1314" s="2" t="n">
@@ -74049,7 +74053,9 @@
       <c r="Q1314" t="n">
         <v>0</v>
       </c>
-      <c r="R1314" t="inlineStr"/>
+      <c r="R1314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1315">
       <c r="A1315" s="2" t="n">
@@ -74103,7 +74109,9 @@
       <c r="Q1315" t="n">
         <v>0</v>
       </c>
-      <c r="R1315" t="inlineStr"/>
+      <c r="R1315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" s="2" t="n">
@@ -74157,7 +74165,2061 @@
       <c r="Q1316" t="n">
         <v>0</v>
       </c>
-      <c r="R1316" t="inlineStr"/>
+      <c r="R1316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1317" t="n">
+        <v>2040.349975585938</v>
+      </c>
+      <c r="C1317" t="n">
+        <v>2067.35009765625</v>
+      </c>
+      <c r="D1317" t="n">
+        <v>2004.050048828125</v>
+      </c>
+      <c r="E1317" t="n">
+        <v>2010.550048828125</v>
+      </c>
+      <c r="F1317" t="n">
+        <v>2010.550048828125</v>
+      </c>
+      <c r="G1317" t="n">
+        <v>156132</v>
+      </c>
+      <c r="H1317" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1317" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1317" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1317" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1317" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1317" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1317" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1317" t="inlineStr"/>
+    </row>
+    <row r="1318">
+      <c r="A1318" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1318" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C1318" t="n">
+        <v>2056.949951171875</v>
+      </c>
+      <c r="D1318" t="n">
+        <v>1976.099975585938</v>
+      </c>
+      <c r="E1318" t="n">
+        <v>1981.349975585938</v>
+      </c>
+      <c r="F1318" t="n">
+        <v>1981.349975585938</v>
+      </c>
+      <c r="G1318" t="n">
+        <v>97659</v>
+      </c>
+      <c r="H1318" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1318" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1318" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1318" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1318" t="inlineStr"/>
+    </row>
+    <row r="1319">
+      <c r="A1319" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1319" t="n">
+        <v>2007.150024414062</v>
+      </c>
+      <c r="C1319" t="n">
+        <v>2077.949951171875</v>
+      </c>
+      <c r="D1319" t="n">
+        <v>1984.199951171875</v>
+      </c>
+      <c r="E1319" t="n">
+        <v>2071.89990234375</v>
+      </c>
+      <c r="F1319" t="n">
+        <v>2071.89990234375</v>
+      </c>
+      <c r="G1319" t="n">
+        <v>227808</v>
+      </c>
+      <c r="H1319" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1319" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1319" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1319" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1319" t="inlineStr"/>
+    </row>
+    <row r="1320">
+      <c r="A1320" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1320" t="n">
+        <v>2076</v>
+      </c>
+      <c r="C1320" t="n">
+        <v>2169.699951171875</v>
+      </c>
+      <c r="D1320" t="n">
+        <v>2076</v>
+      </c>
+      <c r="E1320" t="n">
+        <v>2119.949951171875</v>
+      </c>
+      <c r="F1320" t="n">
+        <v>2119.949951171875</v>
+      </c>
+      <c r="G1320" t="n">
+        <v>384198</v>
+      </c>
+      <c r="H1320" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1320" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1320" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1320" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1320" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1320" t="inlineStr"/>
+    </row>
+    <row r="1321">
+      <c r="A1321" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1321" t="n">
+        <v>2120.5</v>
+      </c>
+      <c r="C1321" t="n">
+        <v>2133.449951171875</v>
+      </c>
+      <c r="D1321" t="n">
+        <v>2064.64990234375</v>
+      </c>
+      <c r="E1321" t="n">
+        <v>2091.800048828125</v>
+      </c>
+      <c r="F1321" t="n">
+        <v>2091.800048828125</v>
+      </c>
+      <c r="G1321" t="n">
+        <v>126479</v>
+      </c>
+      <c r="H1321" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1321" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1321" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1321" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1321" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1321" t="inlineStr"/>
+    </row>
+    <row r="1322">
+      <c r="A1322" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1322" t="n">
+        <v>2085</v>
+      </c>
+      <c r="C1322" t="n">
+        <v>2123.949951171875</v>
+      </c>
+      <c r="D1322" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E1322" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="F1322" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="G1322" t="n">
+        <v>94127</v>
+      </c>
+      <c r="H1322" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1322" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1322" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1322" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1322" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1322" t="inlineStr"/>
+    </row>
+    <row r="1323">
+      <c r="A1323" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1323" t="n">
+        <v>2095.85009765625</v>
+      </c>
+      <c r="C1323" t="n">
+        <v>2111.449951171875</v>
+      </c>
+      <c r="D1323" t="n">
+        <v>2083.300048828125</v>
+      </c>
+      <c r="E1323" t="n">
+        <v>2099.75</v>
+      </c>
+      <c r="F1323" t="n">
+        <v>2099.75</v>
+      </c>
+      <c r="G1323" t="n">
+        <v>85545</v>
+      </c>
+      <c r="H1323" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1323" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1323" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1323" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1324" t="n">
+        <v>2110</v>
+      </c>
+      <c r="C1324" t="n">
+        <v>2115.60009765625</v>
+      </c>
+      <c r="D1324" t="n">
+        <v>2056</v>
+      </c>
+      <c r="E1324" t="n">
+        <v>2065.25</v>
+      </c>
+      <c r="F1324" t="n">
+        <v>2065.25</v>
+      </c>
+      <c r="G1324" t="n">
+        <v>129333</v>
+      </c>
+      <c r="H1324" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1324" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1324" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1324" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1324" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1325" t="n">
+        <v>2082</v>
+      </c>
+      <c r="C1325" t="n">
+        <v>2110.949951171875</v>
+      </c>
+      <c r="D1325" t="n">
+        <v>2065.050048828125</v>
+      </c>
+      <c r="E1325" t="n">
+        <v>2102.25</v>
+      </c>
+      <c r="F1325" t="n">
+        <v>2102.25</v>
+      </c>
+      <c r="G1325" t="n">
+        <v>84876</v>
+      </c>
+      <c r="H1325" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1325" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1325" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1325" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1325" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1326" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C1326" t="n">
+        <v>2124.60009765625</v>
+      </c>
+      <c r="D1326" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E1326" t="n">
+        <v>2079.5</v>
+      </c>
+      <c r="F1326" t="n">
+        <v>2079.5</v>
+      </c>
+      <c r="G1326" t="n">
+        <v>69125</v>
+      </c>
+      <c r="H1326" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1326" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1326" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1326" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1326" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1327" t="n">
+        <v>2079.5</v>
+      </c>
+      <c r="C1327" t="n">
+        <v>2127.800048828125</v>
+      </c>
+      <c r="D1327" t="n">
+        <v>2057.199951171875</v>
+      </c>
+      <c r="E1327" t="n">
+        <v>2097.300048828125</v>
+      </c>
+      <c r="F1327" t="n">
+        <v>2097.300048828125</v>
+      </c>
+      <c r="G1327" t="n">
+        <v>142579</v>
+      </c>
+      <c r="H1327" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1327" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1327" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1327" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1327" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1328" t="n">
+        <v>2087</v>
+      </c>
+      <c r="C1328" t="n">
+        <v>2100.199951171875</v>
+      </c>
+      <c r="D1328" t="n">
+        <v>2043.949951171875</v>
+      </c>
+      <c r="E1328" t="n">
+        <v>2078.85009765625</v>
+      </c>
+      <c r="F1328" t="n">
+        <v>2078.85009765625</v>
+      </c>
+      <c r="G1328" t="n">
+        <v>95883</v>
+      </c>
+      <c r="H1328" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1328" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1328" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1328" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1328" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1329" t="n">
+        <v>2071.35009765625</v>
+      </c>
+      <c r="C1329" t="n">
+        <v>2145.199951171875</v>
+      </c>
+      <c r="D1329" t="n">
+        <v>2071.35009765625</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>2139.800048828125</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>2139.800048828125</v>
+      </c>
+      <c r="G1329" t="n">
+        <v>140666</v>
+      </c>
+      <c r="H1329" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1329" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1329" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1329" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1330" t="n">
+        <v>2157.89990234375</v>
+      </c>
+      <c r="C1330" t="n">
+        <v>2162.449951171875</v>
+      </c>
+      <c r="D1330" t="n">
+        <v>2095.25</v>
+      </c>
+      <c r="E1330" t="n">
+        <v>2111.39990234375</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>2111.39990234375</v>
+      </c>
+      <c r="G1330" t="n">
+        <v>116768</v>
+      </c>
+      <c r="H1330" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1330" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1330" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1330" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1331" t="n">
+        <v>2130</v>
+      </c>
+      <c r="C1331" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D1331" t="n">
+        <v>2105.10009765625</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>2109.25</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>2109.25</v>
+      </c>
+      <c r="G1331" t="n">
+        <v>100204</v>
+      </c>
+      <c r="H1331" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1331" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1331" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1331" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1331" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1331" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1332" t="n">
+        <v>2086</v>
+      </c>
+      <c r="C1332" t="n">
+        <v>2134.949951171875</v>
+      </c>
+      <c r="D1332" t="n">
+        <v>2085</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>2126.199951171875</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>2126.199951171875</v>
+      </c>
+      <c r="G1332" t="n">
+        <v>78395</v>
+      </c>
+      <c r="H1332" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1332" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1332" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1332" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1333" t="n">
+        <v>2122.300048828125</v>
+      </c>
+      <c r="C1333" t="n">
+        <v>2171.949951171875</v>
+      </c>
+      <c r="D1333" t="n">
+        <v>2122.300048828125</v>
+      </c>
+      <c r="E1333" t="n">
+        <v>2144.89990234375</v>
+      </c>
+      <c r="F1333" t="n">
+        <v>2144.89990234375</v>
+      </c>
+      <c r="G1333" t="n">
+        <v>133788</v>
+      </c>
+      <c r="H1333" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1333" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1333" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1333" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1334" t="n">
+        <v>2149.89990234375</v>
+      </c>
+      <c r="C1334" t="n">
+        <v>2189.550048828125</v>
+      </c>
+      <c r="D1334" t="n">
+        <v>2130</v>
+      </c>
+      <c r="E1334" t="n">
+        <v>2139.300048828125</v>
+      </c>
+      <c r="F1334" t="n">
+        <v>2139.300048828125</v>
+      </c>
+      <c r="G1334" t="n">
+        <v>159704</v>
+      </c>
+      <c r="H1334" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1334" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1334" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1334" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1335" t="n">
+        <v>2115.10009765625</v>
+      </c>
+      <c r="C1335" t="n">
+        <v>2160</v>
+      </c>
+      <c r="D1335" t="n">
+        <v>2114.550048828125</v>
+      </c>
+      <c r="E1335" t="n">
+        <v>2153.64990234375</v>
+      </c>
+      <c r="F1335" t="n">
+        <v>2153.64990234375</v>
+      </c>
+      <c r="G1335" t="n">
+        <v>71561</v>
+      </c>
+      <c r="H1335" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1335" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1335" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1335" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>2161.949951171875</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>2196.64990234375</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>2159.800048828125</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>2171.800048828125</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>2171.800048828125</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>228988</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>2170.050048828125</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>2214</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>2159.5</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>2168.89990234375</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>2168.89990234375</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>224494</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>2189</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>2202.699951171875</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>2171.14990234375</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>2176.25</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>2176.25</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>57020</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>2194</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>2194</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>2171.050048828125</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>2177.550048828125</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>2177.550048828125</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>39138</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>2189</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>2202.949951171875</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>2170</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>2174.550048828125</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>2174.550048828125</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>65091</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>2174.550048828125</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>2191.39990234375</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>2143.25</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>2182.10009765625</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>2182.10009765625</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>138101</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>2178.10009765625</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>2191.89990234375</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>2124.64990234375</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>2135.39990234375</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>2135.39990234375</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>72423</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>2137.25</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>2182.550048828125</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>2115.050048828125</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>2127.699951171875</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>2127.699951171875</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>108184</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>2129.550048828125</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>2137.949951171875</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>2082.25</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>2110.5</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>121227</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>2111.949951171875</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>2190</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>2111.949951171875</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>2175.550048828125</v>
+      </c>
+      <c r="F1345" t="n">
+        <v>2175.550048828125</v>
+      </c>
+      <c r="G1345" t="n">
+        <v>154142</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>2174</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>2218.800048828125</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>2170.699951171875</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>2195.550048828125</v>
+      </c>
+      <c r="F1346" t="n">
+        <v>2195.550048828125</v>
+      </c>
+      <c r="G1346" t="n">
+        <v>225697</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>2194.89990234375</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>2170.199951171875</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>2180.199951171875</v>
+      </c>
+      <c r="F1347" t="n">
+        <v>2180.199951171875</v>
+      </c>
+      <c r="G1347" t="n">
+        <v>159009</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>2180.199951171875</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>2186.800048828125</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>2125</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>2161.10009765625</v>
+      </c>
+      <c r="F1348" t="n">
+        <v>2161.10009765625</v>
+      </c>
+      <c r="G1348" t="n">
+        <v>111043</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>2174.800048828125</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>2205.800048828125</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>2151.89990234375</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>2183.199951171875</v>
+      </c>
+      <c r="F1349" t="n">
+        <v>2183.199951171875</v>
+      </c>
+      <c r="G1349" t="n">
+        <v>73591</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>2208.14990234375</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>2164.550048828125</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>2192.050048828125</v>
+      </c>
+      <c r="F1350" t="n">
+        <v>2192.050048828125</v>
+      </c>
+      <c r="G1350" t="n">
+        <v>47107</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>2200.300048828125</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>2264.800048828125</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>2185.10009765625</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>2251.050048828125</v>
+      </c>
+      <c r="F1351" t="n">
+        <v>2251.050048828125</v>
+      </c>
+      <c r="G1351" t="n">
+        <v>267624</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>2235.050048828125</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>2271</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>2226.050048828125</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>2243.35009765625</v>
+      </c>
+      <c r="F1352" t="n">
+        <v>2243.35009765625</v>
+      </c>
+      <c r="G1352" t="n">
+        <v>131060</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>2243.35009765625</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>2299</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>2219.199951171875</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>2234.85009765625</v>
+      </c>
+      <c r="F1353" t="n">
+        <v>2234.85009765625</v>
+      </c>
+      <c r="G1353" t="n">
+        <v>284792</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>2255</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>2277.5</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>2183.800048828125</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>2198.449951171875</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>2198.449951171875</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>288377</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1354"/>
+  <dimension ref="A1:R1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74221,7 +74221,9 @@
       <c r="Q1317" t="n">
         <v>2</v>
       </c>
-      <c r="R1317" t="inlineStr"/>
+      <c r="R1317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1318">
       <c r="A1318" s="2" t="n">
@@ -74275,7 +74277,9 @@
       <c r="Q1318" t="n">
         <v>0</v>
       </c>
-      <c r="R1318" t="inlineStr"/>
+      <c r="R1318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1319">
       <c r="A1319" s="2" t="n">
@@ -74329,7 +74333,9 @@
       <c r="Q1319" t="n">
         <v>0</v>
       </c>
-      <c r="R1319" t="inlineStr"/>
+      <c r="R1319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1320">
       <c r="A1320" s="2" t="n">
@@ -74383,7 +74389,9 @@
       <c r="Q1320" t="n">
         <v>0</v>
       </c>
-      <c r="R1320" t="inlineStr"/>
+      <c r="R1320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1321">
       <c r="A1321" s="2" t="n">
@@ -74437,7 +74445,9 @@
       <c r="Q1321" t="n">
         <v>0</v>
       </c>
-      <c r="R1321" t="inlineStr"/>
+      <c r="R1321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1322">
       <c r="A1322" s="2" t="n">
@@ -74491,7 +74501,9 @@
       <c r="Q1322" t="n">
         <v>0</v>
       </c>
-      <c r="R1322" t="inlineStr"/>
+      <c r="R1322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1323">
       <c r="A1323" s="2" t="n">
@@ -74545,7 +74557,9 @@
       <c r="Q1323" t="n">
         <v>0</v>
       </c>
-      <c r="R1323" t="inlineStr"/>
+      <c r="R1323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1324">
       <c r="A1324" s="2" t="n">
@@ -74599,7 +74613,9 @@
       <c r="Q1324" t="n">
         <v>0</v>
       </c>
-      <c r="R1324" t="inlineStr"/>
+      <c r="R1324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" s="2" t="n">
@@ -74653,7 +74669,9 @@
       <c r="Q1325" t="n">
         <v>0</v>
       </c>
-      <c r="R1325" t="inlineStr"/>
+      <c r="R1325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" s="2" t="n">
@@ -74707,7 +74725,9 @@
       <c r="Q1326" t="n">
         <v>0</v>
       </c>
-      <c r="R1326" t="inlineStr"/>
+      <c r="R1326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1327">
       <c r="A1327" s="2" t="n">
@@ -74761,7 +74781,9 @@
       <c r="Q1327" t="n">
         <v>0</v>
       </c>
-      <c r="R1327" t="inlineStr"/>
+      <c r="R1327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1328">
       <c r="A1328" s="2" t="n">
@@ -74815,7 +74837,9 @@
       <c r="Q1328" t="n">
         <v>0</v>
       </c>
-      <c r="R1328" t="inlineStr"/>
+      <c r="R1328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1329">
       <c r="A1329" s="2" t="n">
@@ -74869,7 +74893,9 @@
       <c r="Q1329" t="n">
         <v>0</v>
       </c>
-      <c r="R1329" t="inlineStr"/>
+      <c r="R1329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1330">
       <c r="A1330" s="2" t="n">
@@ -74923,7 +74949,9 @@
       <c r="Q1330" t="n">
         <v>0</v>
       </c>
-      <c r="R1330" t="inlineStr"/>
+      <c r="R1330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" s="2" t="n">
@@ -74977,7 +75005,9 @@
       <c r="Q1331" t="n">
         <v>2</v>
       </c>
-      <c r="R1331" t="inlineStr"/>
+      <c r="R1331" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1332">
       <c r="A1332" s="2" t="n">
@@ -75031,7 +75061,9 @@
       <c r="Q1332" t="n">
         <v>0</v>
       </c>
-      <c r="R1332" t="inlineStr"/>
+      <c r="R1332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1333">
       <c r="A1333" s="2" t="n">
@@ -75085,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1334">
       <c r="A1334" s="2" t="n">
@@ -75139,7 +75173,9 @@
       <c r="Q1334" t="n">
         <v>0</v>
       </c>
-      <c r="R1334" t="inlineStr"/>
+      <c r="R1334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1335">
       <c r="A1335" s="2" t="n">
@@ -75193,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" s="2" t="n">
@@ -75247,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75301,7 +75341,9 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1338">
       <c r="A1338" s="2" t="n">
@@ -75355,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75409,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75463,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>0</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75517,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75571,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75625,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75679,7 +75733,9 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" s="2" t="n">
@@ -75733,7 +75789,9 @@
       <c r="Q1345" t="n">
         <v>0</v>
       </c>
-      <c r="R1345" t="inlineStr"/>
+      <c r="R1345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" s="2" t="n">
@@ -75787,7 +75845,9 @@
       <c r="Q1346" t="n">
         <v>0</v>
       </c>
-      <c r="R1346" t="inlineStr"/>
+      <c r="R1346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" s="2" t="n">
@@ -75841,7 +75901,9 @@
       <c r="Q1347" t="n">
         <v>0</v>
       </c>
-      <c r="R1347" t="inlineStr"/>
+      <c r="R1347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1348">
       <c r="A1348" s="2" t="n">
@@ -75895,7 +75957,9 @@
       <c r="Q1348" t="n">
         <v>0</v>
       </c>
-      <c r="R1348" t="inlineStr"/>
+      <c r="R1348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1349">
       <c r="A1349" s="2" t="n">
@@ -75949,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76003,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76057,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76111,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76165,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1354">
       <c r="A1354" s="2" t="n">
@@ -76219,7 +76293,711 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>2284</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>2172.60009765625</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>2276.89990234375</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>2276.89990234375</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>114753</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>2270</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>2312.35009765625</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>2268.050048828125</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>2288.550048828125</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>2288.550048828125</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>105611</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>2308</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>2318.300048828125</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>2226</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>2259.550048828125</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>2259.550048828125</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>96249</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>2260</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>2295.89990234375</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>2236.300048828125</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>2274.050048828125</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>2274.050048828125</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>132443</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>2286.75</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>2303.300048828125</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>2212.550048828125</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>2288.449951171875</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>2288.449951171875</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>127726</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>2283</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>2289.050048828125</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>2235.10009765625</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>2259.550048828125</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>2259.550048828125</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>66975</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>2249.800048828125</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>2269.25</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>2218.60009765625</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>2228.699951171875</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>2228.699951171875</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>38676</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>2237</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>2261.5</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>2178.550048828125</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>2187.800048828125</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>2187.800048828125</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>187850</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>2189.60009765625</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>2218</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>2175.75</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>2205.64990234375</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>2205.64990234375</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>71188</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>2200.85009765625</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>2217.89990234375</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>2170.5</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>2176.5</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>2176.5</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>27455</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>2189.85009765625</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>2190.5</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>2127</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>2133.300048828125</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>2133.300048828125</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>62564</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>2129.050048828125</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>2173.699951171875</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>2116.449951171875</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>2121.449951171875</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>2121.449951171875</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>87491</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>2134.949951171875</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>2165.050048828125</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>2109.5</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>2135.35009765625</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>2135.35009765625</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>79476</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1367"/>
+  <dimension ref="A1:R1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76349,7 +76349,9 @@
       <c r="Q1355" t="n">
         <v>1</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1356">
       <c r="A1356" s="2" t="n">
@@ -76403,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>0</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76457,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76511,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76565,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76619,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76673,7 +76685,9 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1362">
       <c r="A1362" s="2" t="n">
@@ -76727,7 +76741,9 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1363">
       <c r="A1363" s="2" t="n">
@@ -76781,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76835,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76889,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76943,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -76997,7 +77021,711 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>2134.300048828125</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2152.14990234375</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2085.10009765625</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>2105.550048828125</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>2105.550048828125</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>162134</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>2097</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>2162.5</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>2085.85009765625</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>2145.449951171875</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>2145.449951171875</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>110043</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>2145</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>2157.800048828125</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>2080.699951171875</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>2119.10009765625</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>2119.10009765625</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>77468</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>2119</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>2156.800048828125</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>2092.64990234375</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>2140.550048828125</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>2140.550048828125</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>79489</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>2135</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>2172.85009765625</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>2123.800048828125</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>2146.199951171875</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>2146.199951171875</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>150983</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>2142.5</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>2174.14990234375</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>2142.35009765625</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>2147.199951171875</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>2147.199951171875</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>3158</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>2124.25</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>2154.75</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>2090.25</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>2103.949951171875</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>2103.949951171875</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>98954</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>2091</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>2153.800048828125</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>2089.449951171875</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>2149.14990234375</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>2149.14990234375</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>183303</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>2146.5</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>2204.050048828125</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>2127.60009765625</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>2190.550048828125</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>2190.550048828125</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>125622</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>2185.5</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>2206.550048828125</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>2096.25</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>2111.85009765625</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>2111.85009765625</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>107112</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>2112.64990234375</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>2129</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>2094.10009765625</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>2115.449951171875</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>2115.449951171875</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>181560</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>2124.949951171875</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>2164</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>2082.10009765625</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>2154.800048828125</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>2154.800048828125</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>269483</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>2154.800048828125</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>2235.949951171875</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>2142</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>2174.300048828125</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>2174.300048828125</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>167022</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1380"/>
+  <dimension ref="A1:R1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77077,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>2</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77131,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77185,7 +77189,9 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1371">
       <c r="A1371" s="2" t="n">
@@ -77239,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>0</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77293,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77347,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77401,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77455,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77509,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77563,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77617,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77671,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77717,7 +77741,7 @@
         <v>46</v>
       </c>
       <c r="O1380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1380" t="n">
         <v>0</v>
@@ -77725,7 +77749,549 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>2165</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>2195.699951171875</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>2037.150024414062</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>2050.14990234375</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>2050.14990234375</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>359837</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>2045</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>2069.10009765625</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>2024.300048828125</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>2032.199951171875</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>2032.199951171875</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>99058</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>2029.5</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>2041.150024414062</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>1996.550048828125</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>2021.199951171875</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>2021.199951171875</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>228048</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>2025.699951171875</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>2059.64990234375</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>2011.150024414062</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>2020.699951171875</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>2020.699951171875</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>63237</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>2007.800048828125</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>2021.449951171875</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>1988.150024414062</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>2015.75</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>2015.75</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>75288</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>2071.39990234375</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>2009.949951171875</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>2061.85009765625</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>2061.85009765625</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>106266</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>2068</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>2123.449951171875</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>2052</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>2118.10009765625</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>2118.10009765625</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>124578</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>2113</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>2165.25</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>2102.949951171875</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>2157.949951171875</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>2157.949951171875</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>94747</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>2153.949951171875</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>2173.75</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>2133.550048828125</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>2168</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>2168</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>47120</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>2186.699951171875</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>2128.39990234375</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>2139.85009765625</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>2139.85009765625</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>95164</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1390"/>
+  <dimension ref="A1:R1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77805,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>1</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77859,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77913,7 +77917,9 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1384">
       <c r="A1384" s="2" t="n">
@@ -77967,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78013,7 +78021,7 @@
         <v>47</v>
       </c>
       <c r="O1385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1385" t="n">
         <v>0</v>
@@ -78021,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78075,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78129,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78183,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78237,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78291,7 +78309,279 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>2130.949951171875</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>2156.60009765625</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>2111</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>2141.60009765625</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>2141.60009765625</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>52189</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>2134.85009765625</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>2187.64990234375</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>2128.10009765625</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>2134.550048828125</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>2134.550048828125</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>63095</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>2144.949951171875</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>2066.199951171875</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>2076.35009765625</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>2076.35009765625</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>125062</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>2076.35009765625</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>2109.10009765625</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>2062.64990234375</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>2105</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>2105</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>142533</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>2120</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>2122.449951171875</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>2091.550048828125</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>2100.199951171875</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>2100.199951171875</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>83654</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1395"/>
+  <dimension ref="A1:R1408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78365,7 +78365,9 @@
       <c r="Q1391" t="n">
         <v>2</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1392">
       <c r="A1392" s="2" t="n">
@@ -78419,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78473,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78527,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78581,7 +78589,685 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>2100.199951171875</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>2158.5</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>2098.300048828125</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>2135.5</v>
+      </c>
+      <c r="F1396" t="inlineStr"/>
+      <c r="G1396" t="n">
+        <v>949767</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>2125</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>2212</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>2091.5</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>2190.449951171875</v>
+      </c>
+      <c r="F1397" t="inlineStr"/>
+      <c r="G1397" t="n">
+        <v>553459</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>2231.550048828125</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>2249.5</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>2174.60009765625</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>2220.85009765625</v>
+      </c>
+      <c r="F1398" t="inlineStr"/>
+      <c r="G1398" t="n">
+        <v>900881</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>2210.050048828125</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>2237.39990234375</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>2189</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>2222.5</v>
+      </c>
+      <c r="F1399" t="inlineStr"/>
+      <c r="G1399" t="n">
+        <v>256479</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>2222.5</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>2235.89990234375</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>2192.5</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>2226.35009765625</v>
+      </c>
+      <c r="F1400" t="inlineStr"/>
+      <c r="G1400" t="n">
+        <v>132876</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>2220</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>2236.89990234375</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>2189</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>2224</v>
+      </c>
+      <c r="F1401" t="inlineStr"/>
+      <c r="G1401" t="n">
+        <v>109801</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>2224</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>2236</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>2193</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>2212.199951171875</v>
+      </c>
+      <c r="F1402" t="inlineStr"/>
+      <c r="G1402" t="n">
+        <v>138911</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>2216.949951171875</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>2245.800048828125</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>2158.25</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>2174.39990234375</v>
+      </c>
+      <c r="F1403" t="inlineStr"/>
+      <c r="G1403" t="n">
+        <v>252335</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>2174.39990234375</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>2178.10009765625</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>2124.89990234375</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>2131.60009765625</v>
+      </c>
+      <c r="F1404" t="inlineStr"/>
+      <c r="G1404" t="n">
+        <v>192262</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>2144.75</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>2070.10009765625</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>2126.39990234375</v>
+      </c>
+      <c r="F1405" t="inlineStr"/>
+      <c r="G1405" t="n">
+        <v>68131</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>2118.64990234375</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>2131.14990234375</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>2052.14990234375</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>2058.050048828125</v>
+      </c>
+      <c r="F1406" t="inlineStr"/>
+      <c r="G1406" t="n">
+        <v>71204</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>2068.199951171875</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>2093.5</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>2016.099975585938</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>2021.699951171875</v>
+      </c>
+      <c r="F1407" t="inlineStr"/>
+      <c r="G1407" t="n">
+        <v>71775</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>2016.25</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>2032.900024414062</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>2001.300048828125</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>2013.599975585938</v>
+      </c>
+      <c r="F1408" t="inlineStr"/>
+      <c r="G1408" t="n">
+        <v>62217</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/METROPOLIS.NS.xlsx
+++ b/stock_historical_data/1d/METROPOLIS.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1408"/>
+  <dimension ref="A1:R1441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78643,7 +78643,9 @@
       <c r="Q1396" t="n">
         <v>1</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78695,7 +78697,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78747,7 +78751,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78799,7 +78805,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78851,7 +78859,9 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1401">
       <c r="A1401" s="2" t="n">
@@ -78903,7 +78913,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78955,7 +78967,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79007,7 +79021,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79059,7 +79075,9 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1405">
       <c r="A1405" s="2" t="n">
@@ -79111,7 +79129,9 @@
       <c r="Q1405" t="n">
         <v>0</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79163,7 +79183,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79215,7 +79237,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79267,7 +79291,1725 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>2013.599975585938</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>2041</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1980.050048828125</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>2028.099975585938</v>
+      </c>
+      <c r="F1409" t="inlineStr"/>
+      <c r="G1409" t="n">
+        <v>108595</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>2028.099975585938</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>2074.75</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>2021</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>2058.14990234375</v>
+      </c>
+      <c r="F1410" t="inlineStr"/>
+      <c r="G1410" t="n">
+        <v>96040</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>2058.14990234375</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>2076.39990234375</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>2026.25</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>2052.449951171875</v>
+      </c>
+      <c r="F1411" t="inlineStr"/>
+      <c r="G1411" t="n">
+        <v>143078</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>2052.449951171875</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>2088.60009765625</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>2048.300048828125</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>2076.64990234375</v>
+      </c>
+      <c r="F1412" t="inlineStr"/>
+      <c r="G1412" t="n">
+        <v>71837</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>2061.10009765625</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>2086.39990234375</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>2044</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>2056.5</v>
+      </c>
+      <c r="F1413" t="inlineStr"/>
+      <c r="G1413" t="n">
+        <v>35586</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>2057.199951171875</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>2065.449951171875</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>2029.150024414062</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>2049.050048828125</v>
+      </c>
+      <c r="F1414" t="inlineStr"/>
+      <c r="G1414" t="n">
+        <v>99817</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>2060.14990234375</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>2060.199951171875</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1976.550048828125</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>1997.800048828125</v>
+      </c>
+      <c r="F1415" t="inlineStr"/>
+      <c r="G1415" t="n">
+        <v>445477</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>1991.199951171875</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>2059.949951171875</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>1970.650024414062</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>2038.800048828125</v>
+      </c>
+      <c r="F1416" t="inlineStr"/>
+      <c r="G1416" t="n">
+        <v>689908</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>2049</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>2072.35009765625</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>2035.099975585938</v>
+      </c>
+      <c r="F1417" t="inlineStr"/>
+      <c r="G1417" t="n">
+        <v>299045</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>2035.5</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>2057.89990234375</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>2007.5</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>2026.599975585938</v>
+      </c>
+      <c r="F1418" t="inlineStr"/>
+      <c r="G1418" t="n">
+        <v>139288</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>2026.599975585938</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>2037.75</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>2000.300048828125</v>
+      </c>
+      <c r="F1419" t="inlineStr"/>
+      <c r="G1419" t="n">
+        <v>111304</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>1981.099975585938</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>2013.5</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>1942.849975585938</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>1953.599975585938</v>
+      </c>
+      <c r="F1420" t="inlineStr"/>
+      <c r="G1420" t="n">
+        <v>218941</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>1916.449951171875</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>1949.949951171875</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>1868.150024414062</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>1882.800048828125</v>
+      </c>
+      <c r="F1421" t="inlineStr"/>
+      <c r="G1421" t="n">
+        <v>127600</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>1885.5</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>1896.349975585938</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>1860</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>1872.050048828125</v>
+      </c>
+      <c r="F1422" t="inlineStr"/>
+      <c r="G1422" t="n">
+        <v>68755</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>1874.949951171875</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>1896.349975585938</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>1841.199951171875</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1877.650024414062</v>
+      </c>
+      <c r="F1423" t="inlineStr"/>
+      <c r="G1423" t="n">
+        <v>97851</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>1898.099975585938</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1874.349975585938</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>1888.849975585938</v>
+      </c>
+      <c r="F1424" t="inlineStr"/>
+      <c r="G1424" t="n">
+        <v>104194</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>1900.400024414062</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1876.199951171875</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1890.699951171875</v>
+      </c>
+      <c r="F1425" t="inlineStr"/>
+      <c r="G1425" t="n">
+        <v>37807</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1888.900024414062</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>1899.849975585938</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1863.550048828125</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>1895.550048828125</v>
+      </c>
+      <c r="F1426" t="inlineStr"/>
+      <c r="G1426" t="n">
+        <v>25198</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1889.900024414062</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>1910.25</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1834.199951171875</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1846.25</v>
+      </c>
+      <c r="F1427" t="inlineStr"/>
+      <c r="G1427" t="n">
+        <v>65224</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1840.849975585938</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>1860.199951171875</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1828.050048828125</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>1849.550048828125</v>
+      </c>
+      <c r="F1428" t="inlineStr"/>
+      <c r="G1428" t="n">
+        <v>93929</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1849.550048828125</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>1883.099975585938</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1842.300048828125</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1870.699951171875</v>
+      </c>
+      <c r="F1429" t="inlineStr"/>
+      <c r="G1429" t="n">
+        <v>65122</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1868.349975585938</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>1878.949951171875</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1795</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1802.199951171875</v>
+      </c>
+      <c r="F1430" t="inlineStr"/>
+      <c r="G1430" t="n">
+        <v>106162</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1793.199951171875</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>1793.650024414062</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1742.050048828125</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1750.949951171875</v>
+      </c>
+      <c r="F1431" t="inlineStr"/>
+      <c r="G1431" t="n">
+        <v>120804</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1747.5</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>1752.349975585938</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1687.400024414062</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>1708.900024414062</v>
+      </c>
+      <c r="F1432" t="inlineStr"/>
+      <c r="G1432" t="n">
+        <v>225331</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1711.949951171875</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>1796.300048828125</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1702.199951171875</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>1791.449951171875</v>
+      </c>
+      <c r="F1433" t="inlineStr"/>
+      <c r="G1433" t="n">
+        <v>92532</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1791.300048828125</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>1872.699951171875</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>1759.099975585938</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>1804.599975585938</v>
+      </c>
+      <c r="F1434" t="inlineStr"/>
+      <c r="G1434" t="n">
+        <v>154949</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>1802.699951171875</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>1811.949951171875</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>1773.800048828125</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>1796.900024414062</v>
+      </c>
+      <c r="F1435" t="inlineStr"/>
+      <c r="G1435" t="n">
+        <v>74571</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>1776.099975585938</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>1730</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>1754.099975585938</v>
+      </c>
+      <c r="F1436" t="inlineStr"/>
+      <c r="G1436" t="n">
+        <v>89278</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>1754</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>1781.949951171875</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>1706.900024414062</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1737.900024414062</v>
+      </c>
+      <c r="F1437" t="inlineStr"/>
+      <c r="G1437" t="n">
+        <v>674457</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>1833.900024414062</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1805</v>
+      </c>
+      <c r="F1438" t="inlineStr"/>
+      <c r="G1438" t="n">
+        <v>609369</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>1875</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>1811.25</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>1851.949951171875</v>
+      </c>
+      <c r="F1439" t="inlineStr"/>
+      <c r="G1439" t="n">
+        <v>354675</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>1862.599975585938</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>1839.300048828125</v>
+      </c>
+      <c r="F1440" t="inlineStr"/>
+      <c r="G1440" t="n">
+        <v>191885</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>1825.199951171875</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>1836.349975585938</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>1783.050048828125</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>1797.199951171875</v>
+      </c>
+      <c r="F1441" t="inlineStr"/>
+      <c r="G1441" t="n">
+        <v>103857</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
